--- a/ArduinoShield/ArduinoShield_BOM.xlsx
+++ b/ArduinoShield/ArduinoShield_BOM.xlsx
@@ -8,19 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Documents\Arduino\LabMonitoring\ArduinoShield\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{225C2583-4DFC-4DB3-A38D-B709A20343F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F966916C-F05B-4433-B969-99B54BCF9C41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30405" yWindow="555" windowWidth="26205" windowHeight="14910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ArduinoShield" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="71">
   <si>
     <t>Item</t>
   </si>
@@ -106,9 +116,6 @@
     <t>J_3V3,JD1,J_GND1</t>
   </si>
   <si>
-    <t>1x15 Socket Header</t>
-  </si>
-  <si>
     <t>Type</t>
   </si>
   <si>
@@ -136,9 +143,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Comment</t>
-  </si>
-  <si>
     <t>Molex_Nano-Fit_105313-xx03_1x03_P2.50mm_Horizontal</t>
   </si>
   <si>
@@ -236,6 +240,9 @@
   </si>
   <si>
     <t>RR0306P-561-D</t>
+  </si>
+  <si>
+    <t>1x15 Socket Header, 2.54 mm Spacing, Matching a 6 mm long square pin</t>
   </si>
 </sst>
 </file>
@@ -1094,10 +1101,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:I18"/>
+  <dimension ref="A2:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1105,11 +1112,11 @@
     <col min="2" max="2" width="25.85546875" customWidth="1"/>
     <col min="3" max="3" width="5.5703125" customWidth="1"/>
     <col min="4" max="5" width="21.5703125" customWidth="1"/>
-    <col min="6" max="6" width="45.42578125" customWidth="1"/>
+    <col min="6" max="6" width="62.42578125" customWidth="1"/>
     <col min="7" max="7" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1123,22 +1130,19 @@
         <v>22</v>
       </c>
       <c r="E2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" t="s">
         <v>36</v>
-      </c>
-      <c r="F2" t="s">
-        <v>37</v>
       </c>
       <c r="G2" t="s">
         <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1151,17 +1155,20 @@
       <c r="D3" t="s">
         <v>23</v>
       </c>
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
       <c r="F3" t="s">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="G3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1172,22 +1179,22 @@
         <v>6</v>
       </c>
       <c r="D4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" t="s">
         <v>53</v>
       </c>
-      <c r="E4" t="s">
-        <v>54</v>
-      </c>
-      <c r="F4" t="s">
-        <v>55</v>
-      </c>
       <c r="G4" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1204,16 +1211,16 @@
         <v>5</v>
       </c>
       <c r="F5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1227,19 +1234,19 @@
         <v>25</v>
       </c>
       <c r="E6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1253,19 +1260,19 @@
         <v>25</v>
       </c>
       <c r="E7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
         <v>40</v>
       </c>
-      <c r="G7" t="s">
-        <v>47</v>
-      </c>
-      <c r="H7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1282,13 +1289,13 @@
         <v>6</v>
       </c>
       <c r="G8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1305,13 +1312,13 @@
         <v>8</v>
       </c>
       <c r="G9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1328,16 +1335,16 @@
         <v>22232021</v>
       </c>
       <c r="F10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1348,22 +1355,22 @@
         <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H11" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1374,22 +1381,22 @@
         <v>7</v>
       </c>
       <c r="D12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E12" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H12" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1400,22 +1407,22 @@
         <v>1</v>
       </c>
       <c r="D13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13" t="s">
         <v>62</v>
       </c>
-      <c r="E13" t="s">
-        <v>64</v>
-      </c>
       <c r="F13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H13" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1426,22 +1433,22 @@
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E14" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F14" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H14" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1452,22 +1459,22 @@
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H15" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1478,19 +1485,19 @@
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G16" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H16" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -1504,19 +1511,19 @@
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F17" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H17" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -1530,19 +1537,37 @@
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E18" t="s">
         <v>14</v>
       </c>
       <c r="F18" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H18" t="s">
-        <v>50</v>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <f>SUM(C3:C18)</f>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <f>C3+C6+C7+C8+C9+C10</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C21">
+        <f>C19-C20</f>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/ArduinoShield/ArduinoShield_BOM.xlsx
+++ b/ArduinoShield/ArduinoShield_BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Documents\Arduino\LabMonitoring\ArduinoShield\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F966916C-F05B-4433-B969-99B54BCF9C41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2838AEC0-A41D-4E73-B8EE-67A07F944C27}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30405" yWindow="555" windowWidth="26205" windowHeight="14910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ArduinoShield" sheetId="1" r:id="rId1"/>
@@ -1101,10 +1101,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:H21"/>
+  <dimension ref="A2:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1112,7 +1112,7 @@
     <col min="2" max="2" width="25.85546875" customWidth="1"/>
     <col min="3" max="3" width="5.5703125" customWidth="1"/>
     <col min="4" max="5" width="21.5703125" customWidth="1"/>
-    <col min="6" max="6" width="62.42578125" customWidth="1"/>
+    <col min="6" max="6" width="78" customWidth="1"/>
     <col min="7" max="7" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1550,24 +1550,6 @@
       </c>
       <c r="H18" t="s">
         <v>48</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C19">
-        <f>SUM(C3:C18)</f>
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C20">
-        <f>C3+C6+C7+C8+C9+C10</f>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C21">
-        <f>C19-C20</f>
-        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/ArduinoShield/ArduinoShield_BOM.xlsx
+++ b/ArduinoShield/ArduinoShield_BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Documents\Arduino\LabMonitoring\ArduinoShield\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2838AEC0-A41D-4E73-B8EE-67A07F944C27}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03B98061-1652-49F7-BCA2-22E8C2C55D2F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1320" yWindow="1530" windowWidth="26205" windowHeight="14910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ArduinoShield" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="73">
   <si>
     <t>Item</t>
   </si>
@@ -242,7 +242,13 @@
     <t>RR0306P-561-D</t>
   </si>
   <si>
-    <t>1x15 Socket Header, 2.54 mm Spacing, Matching a 6 mm long square pin</t>
+    <t>Samtec</t>
+  </si>
+  <si>
+    <t>SSW-115-01-T-S</t>
+  </si>
+  <si>
+    <t>CONN RCPT 15POS 0.1 TIN PCB</t>
   </si>
 </sst>
 </file>
@@ -1104,7 +1110,7 @@
   <dimension ref="A2:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1153,13 +1159,13 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
+        <v>71</v>
       </c>
       <c r="F3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G3" t="s">
         <v>46</v>
